--- a/Libraries/Vehicle/Springs/Axle1/sm_car_data_Springs_Axle1_Linear.xlsx
+++ b/Libraries/Vehicle/Springs/Axle1/sm_car_data_Springs_Axle1_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Springs\Axle1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Springs\Axle1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D7D003-8641-482F-B07D-1F469D5C4D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C568018-415E-403D-9C45-2A208E433A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{42C8BEA0-BCB5-4829-A42D-10023EB49834}"/>
+    <workbookView xWindow="4470" yWindow="1560" windowWidth="21600" windowHeight="12870" xr2:uid="{42C8BEA0-BCB5-4829-A42D-10023EB49834}"/>
   </bookViews>
   <sheets>
     <sheet name="Axle1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Units</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>Axle1</t>
+  </si>
+  <si>
+    <t>fPreload</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Set either xPreload or fPreload to a nonzero value</t>
   </si>
 </sst>
 </file>
@@ -167,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -180,9 +189,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -191,30 +199,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -250,9 +248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -290,7 +288,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -396,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -538,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,26 +547,26 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G14" sqref="G14"/>
       <selection pane="topRight" activeCell="G14" sqref="G14"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -588,329 +586,202 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>-2.2000000000000006E-3</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>0.59760000000000002</v>
       </c>
-      <c r="I5"/>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>4.5700000000000005E-2</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>0.56449999999999989</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="16">
         <v>8.9399999999999966E-2</v>
       </c>
-      <c r="I6"/>
       <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="K6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13">
         <v>140000</v>
       </c>
-      <c r="I7"/>
-      <c r="J7" s="6" t="s">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="K7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="7">
+      <c r="E8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="6">
         <v>0.15</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="H18" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A13:B14 A4:B5 B6:B8">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B16">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="A4:B5 B6:B8 A13:B16">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
